--- a/Code/Results/Cases/Case_2_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9952101360214812</v>
+        <v>1.024852614231394</v>
       </c>
       <c r="D2">
-        <v>1.015339828343986</v>
+        <v>1.030275598867084</v>
       </c>
       <c r="E2">
-        <v>1.01485990385168</v>
+        <v>1.04973034196552</v>
       </c>
       <c r="F2">
-        <v>1.020362861217489</v>
+        <v>1.054357701271882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045172485762945</v>
+        <v>1.032927172094084</v>
       </c>
       <c r="J2">
-        <v>1.017535061068265</v>
+        <v>1.030024908841102</v>
       </c>
       <c r="K2">
-        <v>1.026589512847192</v>
+        <v>1.033087081237461</v>
       </c>
       <c r="L2">
-        <v>1.026116026808303</v>
+        <v>1.052486587030788</v>
       </c>
       <c r="M2">
-        <v>1.031545614970497</v>
+        <v>1.057101133296821</v>
       </c>
       <c r="N2">
-        <v>1.018980077567878</v>
+        <v>1.031487662357165</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9999300096690177</v>
+        <v>1.025821940348247</v>
       </c>
       <c r="D3">
-        <v>1.018873115163295</v>
+        <v>1.031003769423294</v>
       </c>
       <c r="E3">
-        <v>1.019761613226519</v>
+        <v>1.05083822330453</v>
       </c>
       <c r="F3">
-        <v>1.025487464499068</v>
+        <v>1.055499693330672</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046625271204899</v>
+        <v>1.033133484924805</v>
       </c>
       <c r="J3">
-        <v>1.02042258287333</v>
+        <v>1.030633216276745</v>
       </c>
       <c r="K3">
-        <v>1.029270074354584</v>
+        <v>1.033623788034601</v>
       </c>
       <c r="L3">
-        <v>1.030147733399134</v>
+        <v>1.053406010297923</v>
       </c>
       <c r="M3">
-        <v>1.035804292685191</v>
+        <v>1.058055512254551</v>
       </c>
       <c r="N3">
-        <v>1.021871699985117</v>
+        <v>1.03209683365914</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002914897227212</v>
+        <v>1.026449024731784</v>
       </c>
       <c r="D4">
-        <v>1.021107398983491</v>
+        <v>1.031474435580884</v>
       </c>
       <c r="E4">
-        <v>1.022870991041761</v>
+        <v>1.05155586022906</v>
       </c>
       <c r="F4">
-        <v>1.028735167539357</v>
+        <v>1.056239099691689</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047529033779861</v>
+        <v>1.033265086062988</v>
       </c>
       <c r="J4">
-        <v>1.022244332403149</v>
+        <v>1.031026115864915</v>
       </c>
       <c r="K4">
-        <v>1.030957579693385</v>
+        <v>1.03396989909974</v>
       </c>
       <c r="L4">
-        <v>1.032701002482947</v>
+        <v>1.054001111976669</v>
       </c>
       <c r="M4">
-        <v>1.038498726128398</v>
+        <v>1.058672936690368</v>
       </c>
       <c r="N4">
-        <v>1.023696036608226</v>
+        <v>1.032490291209791</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004153801426439</v>
+        <v>1.026712618548812</v>
       </c>
       <c r="D5">
-        <v>1.02203464872909</v>
+        <v>1.031672180864613</v>
       </c>
       <c r="E5">
-        <v>1.024163843318412</v>
+        <v>1.051857737596656</v>
       </c>
       <c r="F5">
-        <v>1.030084799810462</v>
+        <v>1.056550056504243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047900496274862</v>
+        <v>1.033319956558579</v>
       </c>
       <c r="J5">
-        <v>1.022999388354067</v>
+        <v>1.03119111895166</v>
       </c>
       <c r="K5">
-        <v>1.031656093369646</v>
+        <v>1.034115122443009</v>
       </c>
       <c r="L5">
-        <v>1.033761608489232</v>
+        <v>1.054251334189243</v>
       </c>
       <c r="M5">
-        <v>1.039617348076003</v>
+        <v>1.058932472476968</v>
       </c>
       <c r="N5">
-        <v>1.0244521648252</v>
+        <v>1.032655528619845</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00436090142338</v>
+        <v>1.026756875199182</v>
       </c>
       <c r="D6">
-        <v>1.02218964313663</v>
+        <v>1.031705375941115</v>
       </c>
       <c r="E6">
-        <v>1.024380095361201</v>
+        <v>1.051908434854586</v>
       </c>
       <c r="F6">
-        <v>1.030310506159732</v>
+        <v>1.05660227399346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047962375052206</v>
+        <v>1.033329142883358</v>
       </c>
       <c r="J6">
-        <v>1.023125542056599</v>
+        <v>1.031218813601369</v>
       </c>
       <c r="K6">
-        <v>1.031772746379469</v>
+        <v>1.034139489540115</v>
       </c>
       <c r="L6">
-        <v>1.033938953079366</v>
+        <v>1.054293350030483</v>
       </c>
       <c r="M6">
-        <v>1.039804356820021</v>
+        <v>1.058976047947797</v>
       </c>
       <c r="N6">
-        <v>1.02457849768046</v>
+        <v>1.032683262599134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002931513372222</v>
+        <v>1.026452547013156</v>
       </c>
       <c r="D7">
-        <v>1.021119835743159</v>
+        <v>1.031477078346644</v>
       </c>
       <c r="E7">
-        <v>1.022888321736843</v>
+        <v>1.051559893210931</v>
       </c>
       <c r="F7">
-        <v>1.02875326226973</v>
+        <v>1.056243254278153</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047534030330712</v>
+        <v>1.033265821032186</v>
       </c>
       <c r="J7">
-        <v>1.022254463494715</v>
+        <v>1.031028321320311</v>
       </c>
       <c r="K7">
-        <v>1.030966955716366</v>
+        <v>1.033971840689088</v>
       </c>
       <c r="L7">
-        <v>1.03271522395686</v>
+        <v>1.054004455295227</v>
       </c>
       <c r="M7">
-        <v>1.038513727993104</v>
+        <v>1.058676404736092</v>
       </c>
       <c r="N7">
-        <v>1.023706182087103</v>
+        <v>1.032492499797187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9968199498918273</v>
+        <v>1.025180230202041</v>
       </c>
       <c r="D8">
-        <v>1.016544933653804</v>
+        <v>1.030521792320598</v>
       </c>
       <c r="E8">
-        <v>1.01652974124783</v>
+        <v>1.05010459753543</v>
       </c>
       <c r="F8">
-        <v>1.022109274225841</v>
+        <v>1.054743547343114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04567110383295</v>
+        <v>1.032997289003116</v>
       </c>
       <c r="J8">
-        <v>1.018520802523795</v>
+        <v>1.030230637147537</v>
       </c>
       <c r="K8">
-        <v>1.027505361652059</v>
+        <v>1.033268706526686</v>
       </c>
       <c r="L8">
-        <v>1.027490366736995</v>
+        <v>1.052797274517352</v>
       </c>
       <c r="M8">
-        <v>1.032997863243898</v>
+        <v>1.057423695450985</v>
       </c>
       <c r="N8">
-        <v>1.019967218889347</v>
+        <v>1.031693682821392</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9854909314586889</v>
+        <v>1.022937227275699</v>
       </c>
       <c r="D9">
-        <v>1.008065896734733</v>
+        <v>1.02883459972755</v>
       </c>
       <c r="E9">
-        <v>1.004818905719904</v>
+        <v>1.047546028751686</v>
       </c>
       <c r="F9">
-        <v>1.009848330094595</v>
+        <v>1.052104404015282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042100485739395</v>
+        <v>1.032509592063097</v>
       </c>
       <c r="J9">
-        <v>1.011566655258829</v>
+        <v>1.028819553024303</v>
       </c>
       <c r="K9">
-        <v>1.021029451974961</v>
+        <v>1.032020730513451</v>
       </c>
       <c r="L9">
-        <v>1.017834280391867</v>
+        <v>1.050671396273953</v>
       </c>
       <c r="M9">
-        <v>1.02278362051346</v>
+        <v>1.055215326862569</v>
       </c>
       <c r="N9">
-        <v>1.013003195937613</v>
+        <v>1.03028059479685</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9775171925676844</v>
+        <v>1.021441219748342</v>
       </c>
       <c r="D10">
-        <v>1.002103566127298</v>
+        <v>1.027707264731466</v>
       </c>
       <c r="E10">
-        <v>0.99662836549207</v>
+        <v>1.045844244656177</v>
       </c>
       <c r="F10">
-        <v>1.001256326850058</v>
+        <v>1.050347346474936</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03951145959438</v>
+        <v>1.032174731268811</v>
       </c>
       <c r="J10">
-        <v>1.006652124045952</v>
+        <v>1.027875183704065</v>
       </c>
       <c r="K10">
-        <v>1.016434943623917</v>
+        <v>1.031182756298828</v>
       </c>
       <c r="L10">
-        <v>1.01105876385743</v>
+        <v>1.04925503572529</v>
       </c>
       <c r="M10">
-        <v>1.015602934916462</v>
+        <v>1.053742454865798</v>
       </c>
       <c r="N10">
-        <v>1.00808168552671</v>
+        <v>1.029334884363856</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739536057444087</v>
+        <v>1.020793274114707</v>
       </c>
       <c r="D11">
-        <v>0.9994412811795195</v>
+        <v>1.027218524302133</v>
       </c>
       <c r="E11">
-        <v>0.9929803190621839</v>
+        <v>1.045108283350173</v>
       </c>
       <c r="F11">
-        <v>0.9974254632654045</v>
+        <v>1.049587081778867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038337203516225</v>
+        <v>1.032027430118315</v>
       </c>
       <c r="J11">
-        <v>1.00445157518587</v>
+        <v>1.027465401306779</v>
       </c>
       <c r="K11">
-        <v>1.014373741816397</v>
+        <v>1.03081849047747</v>
       </c>
       <c r="L11">
-        <v>1.008035841659897</v>
+        <v>1.048641946187672</v>
       </c>
       <c r="M11">
-        <v>1.012396095448136</v>
+        <v>1.053104535948163</v>
       </c>
       <c r="N11">
-        <v>1.00587801163484</v>
+        <v>1.028924520028564</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9726122435592208</v>
+        <v>1.020552573551271</v>
       </c>
       <c r="D12">
-        <v>0.9984396288527712</v>
+        <v>1.027036895431589</v>
       </c>
       <c r="E12">
-        <v>0.9916090445849086</v>
+        <v>1.044835052878601</v>
       </c>
       <c r="F12">
-        <v>0.9959848633713946</v>
+        <v>1.04930476839519</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037892696500586</v>
+        <v>1.031972370063938</v>
       </c>
       <c r="J12">
-        <v>1.003622695809852</v>
+        <v>1.027313060343817</v>
       </c>
       <c r="K12">
-        <v>1.013596784292034</v>
+        <v>1.030682973462053</v>
       </c>
       <c r="L12">
-        <v>1.006898787242131</v>
+        <v>1.048414247862361</v>
       </c>
       <c r="M12">
-        <v>1.011189393467566</v>
+        <v>1.052867560913704</v>
       </c>
       <c r="N12">
-        <v>1.005047955155034</v>
+        <v>1.028771962723961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9729007880660762</v>
+        <v>1.020604205757063</v>
       </c>
       <c r="D13">
-        <v>0.9986550752845662</v>
+        <v>1.027075859452163</v>
       </c>
       <c r="E13">
-        <v>0.9919039385472804</v>
+        <v>1.044893655486873</v>
       </c>
       <c r="F13">
-        <v>0.9962946932674812</v>
+        <v>1.049365321833058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037988427824739</v>
+        <v>1.031984196277569</v>
       </c>
       <c r="J13">
-        <v>1.003801023725673</v>
+        <v>1.027345743854339</v>
       </c>
       <c r="K13">
-        <v>1.013763966679691</v>
+        <v>1.030712051928884</v>
       </c>
       <c r="L13">
-        <v>1.007143346094081</v>
+        <v>1.048463088552591</v>
       </c>
       <c r="M13">
-        <v>1.011448953257089</v>
+        <v>1.052918393931147</v>
       </c>
       <c r="N13">
-        <v>1.005226536316951</v>
+        <v>1.028804692648815</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738430953668605</v>
+        <v>1.020773378234986</v>
       </c>
       <c r="D14">
-        <v>0.9993587485989218</v>
+        <v>1.027203512612436</v>
       </c>
       <c r="E14">
-        <v>0.9928673060691661</v>
+        <v>1.045085695213846</v>
       </c>
       <c r="F14">
-        <v>0.9973067491827704</v>
+        <v>1.04956374397953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038300632570745</v>
+        <v>1.032022885890334</v>
       </c>
       <c r="J14">
-        <v>1.004383297953269</v>
+        <v>1.027452811395967</v>
       </c>
       <c r="K14">
-        <v>1.014309752874175</v>
+        <v>1.030807292930246</v>
       </c>
       <c r="L14">
-        <v>1.007942147189941</v>
+        <v>1.048623123953593</v>
       </c>
       <c r="M14">
-        <v>1.012296671429799</v>
+        <v>1.053084947999158</v>
       </c>
       <c r="N14">
-        <v>1.005809637440737</v>
+        <v>1.028911912238634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744213061799036</v>
+        <v>1.020877607708559</v>
       </c>
       <c r="D15">
-        <v>0.9997905934113023</v>
+        <v>1.027282152178462</v>
       </c>
       <c r="E15">
-        <v>0.9934586876401003</v>
+        <v>1.045204035549547</v>
       </c>
       <c r="F15">
-        <v>0.9979279390653102</v>
+        <v>1.049686009372899</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0384918768389</v>
+        <v>1.032046678019304</v>
       </c>
       <c r="J15">
-        <v>1.004740513980203</v>
+        <v>1.027518762086536</v>
       </c>
       <c r="K15">
-        <v>1.014644510339867</v>
+        <v>1.030865945914569</v>
       </c>
       <c r="L15">
-        <v>1.008432406667042</v>
+        <v>1.048721731071524</v>
       </c>
       <c r="M15">
-        <v>1.012816891916748</v>
+        <v>1.053187564332545</v>
       </c>
       <c r="N15">
-        <v>1.006167360755403</v>
+        <v>1.028977956586748</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9777512738074398</v>
+        <v>1.021484218301087</v>
       </c>
       <c r="D16">
-        <v>1.002278500928876</v>
+        <v>1.027739688313213</v>
       </c>
       <c r="E16">
-        <v>0.9968682541719694</v>
+        <v>1.045893107396755</v>
       </c>
       <c r="F16">
-        <v>1.001508153467877</v>
+        <v>1.050397814362318</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039588241629509</v>
+        <v>1.032184458642467</v>
       </c>
       <c r="J16">
-        <v>1.00679658894973</v>
+        <v>1.027902361429907</v>
       </c>
       <c r="K16">
-        <v>1.016570180665985</v>
+        <v>1.031206901599213</v>
       </c>
       <c r="L16">
-        <v>1.01125743964892</v>
+        <v>1.049295728737238</v>
       </c>
       <c r="M16">
-        <v>1.015813633174127</v>
+        <v>1.053784788150613</v>
       </c>
       <c r="N16">
-        <v>1.008226355587221</v>
+        <v>1.029362100685186</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9798096838092445</v>
+        <v>1.021864685065331</v>
       </c>
       <c r="D17">
-        <v>1.00381708324372</v>
+        <v>1.028026529371584</v>
       </c>
       <c r="E17">
-        <v>0.9989791459028634</v>
+        <v>1.046325590741067</v>
       </c>
       <c r="F17">
-        <v>1.003723636252285</v>
+        <v>1.050844458634284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040261486717539</v>
+        <v>1.03227026812044</v>
       </c>
       <c r="J17">
-        <v>1.008066483642212</v>
+        <v>1.028142751998979</v>
       </c>
       <c r="K17">
-        <v>1.017758514545975</v>
+        <v>1.031420394944681</v>
       </c>
       <c r="L17">
-        <v>1.013005098096382</v>
+        <v>1.049655836756432</v>
       </c>
       <c r="M17">
-        <v>1.017666690126652</v>
+        <v>1.054159369093032</v>
       </c>
       <c r="N17">
-        <v>1.009498053675826</v>
+        <v>1.02960283263644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9809996922607758</v>
+        <v>1.022086589019465</v>
       </c>
       <c r="D18">
-        <v>1.004706786845267</v>
+        <v>1.028193781261168</v>
       </c>
       <c r="E18">
-        <v>1.00020067135556</v>
+        <v>1.046577939978029</v>
       </c>
       <c r="F18">
-        <v>1.005005306370317</v>
+        <v>1.051105032038785</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040649071751551</v>
+        <v>1.032320096991528</v>
       </c>
       <c r="J18">
-        <v>1.008800237259774</v>
+        <v>1.028282884342871</v>
       </c>
       <c r="K18">
-        <v>1.01844476661722</v>
+        <v>1.031544785204856</v>
       </c>
       <c r="L18">
-        <v>1.014015941849337</v>
+        <v>1.049865901361599</v>
       </c>
       <c r="M18">
-        <v>1.018738197428003</v>
+        <v>1.054377840815042</v>
       </c>
       <c r="N18">
-        <v>1.010232849307688</v>
+        <v>1.029743163984333</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9814036816166489</v>
+        <v>1.022162249840725</v>
       </c>
       <c r="D19">
-        <v>1.005008861584435</v>
+        <v>1.028250800031906</v>
       </c>
       <c r="E19">
-        <v>1.000615559458871</v>
+        <v>1.04666399965365</v>
       </c>
       <c r="F19">
-        <v>1.005440558141165</v>
+        <v>1.05119388989468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040780371948694</v>
+        <v>1.032337049624962</v>
       </c>
       <c r="J19">
-        <v>1.009049266179868</v>
+        <v>1.028330651693882</v>
       </c>
       <c r="K19">
-        <v>1.018677609538813</v>
+        <v>1.031587175851124</v>
       </c>
       <c r="L19">
-        <v>1.014359189569245</v>
+        <v>1.0499375313096</v>
       </c>
       <c r="M19">
-        <v>1.019101993561703</v>
+        <v>1.054452331486421</v>
       </c>
       <c r="N19">
-        <v>1.010482231877413</v>
+        <v>1.029790999170462</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9795899422717343</v>
+        <v>1.021823866223789</v>
       </c>
       <c r="D20">
-        <v>1.003652811596641</v>
+        <v>1.027995759997683</v>
       </c>
       <c r="E20">
-        <v>0.9987536796234092</v>
+        <v>1.04627918016526</v>
       </c>
       <c r="F20">
-        <v>1.003487037939216</v>
+        <v>1.050796532413764</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040189784581829</v>
+        <v>1.032261084571323</v>
       </c>
       <c r="J20">
-        <v>1.007930959489559</v>
+        <v>1.028116968990904</v>
       </c>
       <c r="K20">
-        <v>1.01763173338356</v>
+        <v>1.03139750327506</v>
       </c>
       <c r="L20">
-        <v>1.012818479531204</v>
+        <v>1.049617198538757</v>
       </c>
       <c r="M20">
-        <v>1.017468847866873</v>
+        <v>1.05411918165592</v>
       </c>
       <c r="N20">
-        <v>1.009362337063332</v>
+        <v>1.029577013013535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.973566106261882</v>
+        <v>1.020723561838681</v>
       </c>
       <c r="D21">
-        <v>0.9991518921635052</v>
+        <v>1.027165924386734</v>
       </c>
       <c r="E21">
-        <v>0.9925840745717658</v>
+        <v>1.045029140484322</v>
       </c>
       <c r="F21">
-        <v>0.9970092199275983</v>
+        <v>1.049505311320178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038208929076461</v>
+        <v>1.032011502308141</v>
       </c>
       <c r="J21">
-        <v>1.004212155167524</v>
+        <v>1.027421286246893</v>
       </c>
       <c r="K21">
-        <v>1.014149350041752</v>
+        <v>1.030779252690517</v>
       </c>
       <c r="L21">
-        <v>1.007707319289838</v>
+        <v>1.048575996678542</v>
       </c>
       <c r="M21">
-        <v>1.012047475951459</v>
+        <v>1.053035902628667</v>
       </c>
       <c r="N21">
-        <v>1.005638251612606</v>
+        <v>1.028880342320233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9696757778336615</v>
+        <v>1.020031613865649</v>
       </c>
       <c r="D22">
-        <v>0.9962477888022683</v>
+        <v>1.026643659747861</v>
       </c>
       <c r="E22">
-        <v>0.988610567011401</v>
+        <v>1.044243991107207</v>
       </c>
       <c r="F22">
-        <v>0.9928336778569213</v>
+        <v>1.048693948143566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036915065646468</v>
+        <v>1.031852579222538</v>
       </c>
       <c r="J22">
-        <v>1.001807140130264</v>
+        <v>1.026983133593486</v>
       </c>
       <c r="K22">
-        <v>1.011893946009013</v>
+        <v>1.030389304957013</v>
       </c>
       <c r="L22">
-        <v>1.004411078408282</v>
+        <v>1.047921527679429</v>
       </c>
       <c r="M22">
-        <v>1.008548450419926</v>
+        <v>1.052354665801984</v>
       </c>
       <c r="N22">
-        <v>1.003229821178134</v>
+        <v>1.028441567439801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9717482331400258</v>
+        <v>1.020398442124697</v>
       </c>
       <c r="D23">
-        <v>0.9977945755202733</v>
+        <v>1.02692057058646</v>
       </c>
       <c r="E23">
-        <v>0.990726297822726</v>
+        <v>1.044660137886009</v>
       </c>
       <c r="F23">
-        <v>0.995057317737332</v>
+        <v>1.049124021826224</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037605679328475</v>
+        <v>1.031937016900646</v>
       </c>
       <c r="J23">
-        <v>1.00308863490874</v>
+        <v>1.027215477528532</v>
       </c>
       <c r="K23">
-        <v>1.013096021495797</v>
+        <v>1.030596139968093</v>
       </c>
       <c r="L23">
-        <v>1.006166605006531</v>
+        <v>1.048268457472646</v>
       </c>
       <c r="M23">
-        <v>1.010412231865899</v>
+        <v>1.052715815308898</v>
       </c>
       <c r="N23">
-        <v>1.004513135826185</v>
+        <v>1.028674241329885</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9796892667800116</v>
+        <v>1.021842310550152</v>
       </c>
       <c r="D24">
-        <v>1.003727062708742</v>
+        <v>1.028009663531415</v>
       </c>
       <c r="E24">
-        <v>0.9988555881020241</v>
+        <v>1.046300150831501</v>
       </c>
       <c r="F24">
-        <v>1.003593979161853</v>
+        <v>1.050818188044779</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040222199448677</v>
+        <v>1.032265234908853</v>
       </c>
       <c r="J24">
-        <v>1.007992218467831</v>
+        <v>1.02812861948009</v>
       </c>
       <c r="K24">
-        <v>1.017689041563298</v>
+        <v>1.031407847457841</v>
       </c>
       <c r="L24">
-        <v>1.012902830745857</v>
+        <v>1.04963465742515</v>
       </c>
       <c r="M24">
-        <v>1.017558273095956</v>
+        <v>1.054137340675082</v>
       </c>
       <c r="N24">
-        <v>1.009423683036379</v>
+        <v>1.029588680047753</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9884904845968712</v>
+        <v>1.023517216667257</v>
       </c>
       <c r="D25">
-        <v>1.010310257900049</v>
+        <v>1.029271230979475</v>
       </c>
       <c r="E25">
-        <v>1.007910659143934</v>
+        <v>1.048206787437954</v>
       </c>
       <c r="F25">
-        <v>1.013088185641012</v>
+        <v>1.052786267609744</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043059174480812</v>
+        <v>1.032637390161139</v>
       </c>
       <c r="J25">
-        <v>1.013411496671907</v>
+        <v>1.029184996725037</v>
       </c>
       <c r="K25">
-        <v>1.02275060132932</v>
+        <v>1.032344420686054</v>
       </c>
       <c r="L25">
-        <v>1.02038740107743</v>
+        <v>1.051220829482306</v>
       </c>
       <c r="M25">
-        <v>1.025486665972463</v>
+        <v>1.055786353614676</v>
       </c>
       <c r="N25">
-        <v>1.014850657237105</v>
+        <v>1.030646557469556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024852614231394</v>
+        <v>0.995210136021481</v>
       </c>
       <c r="D2">
-        <v>1.030275598867084</v>
+        <v>1.015339828343986</v>
       </c>
       <c r="E2">
-        <v>1.04973034196552</v>
+        <v>1.014859903851681</v>
       </c>
       <c r="F2">
-        <v>1.054357701271882</v>
+        <v>1.02036286121749</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032927172094084</v>
+        <v>1.045172485762945</v>
       </c>
       <c r="J2">
-        <v>1.030024908841102</v>
+        <v>1.017535061068265</v>
       </c>
       <c r="K2">
-        <v>1.033087081237461</v>
+        <v>1.026589512847191</v>
       </c>
       <c r="L2">
-        <v>1.052486587030788</v>
+        <v>1.026116026808304</v>
       </c>
       <c r="M2">
-        <v>1.057101133296821</v>
+        <v>1.031545614970497</v>
       </c>
       <c r="N2">
-        <v>1.031487662357165</v>
+        <v>1.018980077567878</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025821940348247</v>
+        <v>0.9999300096690172</v>
       </c>
       <c r="D3">
-        <v>1.031003769423294</v>
+        <v>1.018873115163295</v>
       </c>
       <c r="E3">
-        <v>1.05083822330453</v>
+        <v>1.019761613226519</v>
       </c>
       <c r="F3">
-        <v>1.055499693330672</v>
+        <v>1.025487464499068</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033133484924805</v>
+        <v>1.046625271204898</v>
       </c>
       <c r="J3">
-        <v>1.030633216276745</v>
+        <v>1.02042258287333</v>
       </c>
       <c r="K3">
-        <v>1.033623788034601</v>
+        <v>1.029270074354583</v>
       </c>
       <c r="L3">
-        <v>1.053406010297923</v>
+        <v>1.030147733399134</v>
       </c>
       <c r="M3">
-        <v>1.058055512254551</v>
+        <v>1.03580429268519</v>
       </c>
       <c r="N3">
-        <v>1.03209683365914</v>
+        <v>1.021871699985116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026449024731784</v>
+        <v>1.002914897227212</v>
       </c>
       <c r="D4">
-        <v>1.031474435580884</v>
+        <v>1.021107398983491</v>
       </c>
       <c r="E4">
-        <v>1.05155586022906</v>
+        <v>1.02287099104176</v>
       </c>
       <c r="F4">
-        <v>1.056239099691689</v>
+        <v>1.028735167539357</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033265086062988</v>
+        <v>1.047529033779861</v>
       </c>
       <c r="J4">
-        <v>1.031026115864915</v>
+        <v>1.022244332403149</v>
       </c>
       <c r="K4">
-        <v>1.03396989909974</v>
+        <v>1.030957579693385</v>
       </c>
       <c r="L4">
-        <v>1.054001111976669</v>
+        <v>1.032701002482947</v>
       </c>
       <c r="M4">
-        <v>1.058672936690368</v>
+        <v>1.038498726128398</v>
       </c>
       <c r="N4">
-        <v>1.032490291209791</v>
+        <v>1.023696036608226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026712618548812</v>
+        <v>1.004153801426438</v>
       </c>
       <c r="D5">
-        <v>1.031672180864613</v>
+        <v>1.02203464872909</v>
       </c>
       <c r="E5">
-        <v>1.051857737596656</v>
+        <v>1.024163843318412</v>
       </c>
       <c r="F5">
-        <v>1.056550056504243</v>
+        <v>1.030084799810462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033319956558579</v>
+        <v>1.047900496274862</v>
       </c>
       <c r="J5">
-        <v>1.03119111895166</v>
+        <v>1.022999388354067</v>
       </c>
       <c r="K5">
-        <v>1.034115122443009</v>
+        <v>1.031656093369645</v>
       </c>
       <c r="L5">
-        <v>1.054251334189243</v>
+        <v>1.033761608489232</v>
       </c>
       <c r="M5">
-        <v>1.058932472476968</v>
+        <v>1.039617348076003</v>
       </c>
       <c r="N5">
-        <v>1.032655528619845</v>
+        <v>1.0244521648252</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026756875199182</v>
+        <v>1.00436090142338</v>
       </c>
       <c r="D6">
-        <v>1.031705375941115</v>
+        <v>1.022189643136631</v>
       </c>
       <c r="E6">
-        <v>1.051908434854586</v>
+        <v>1.024380095361201</v>
       </c>
       <c r="F6">
-        <v>1.05660227399346</v>
+        <v>1.030310506159732</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033329142883358</v>
+        <v>1.047962375052206</v>
       </c>
       <c r="J6">
-        <v>1.031218813601369</v>
+        <v>1.0231255420566</v>
       </c>
       <c r="K6">
-        <v>1.034139489540115</v>
+        <v>1.031772746379469</v>
       </c>
       <c r="L6">
-        <v>1.054293350030483</v>
+        <v>1.033938953079366</v>
       </c>
       <c r="M6">
-        <v>1.058976047947797</v>
+        <v>1.039804356820021</v>
       </c>
       <c r="N6">
-        <v>1.032683262599134</v>
+        <v>1.02457849768046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026452547013156</v>
+        <v>1.002931513372223</v>
       </c>
       <c r="D7">
-        <v>1.031477078346644</v>
+        <v>1.021119835743159</v>
       </c>
       <c r="E7">
-        <v>1.051559893210931</v>
+        <v>1.022888321736843</v>
       </c>
       <c r="F7">
-        <v>1.056243254278153</v>
+        <v>1.02875326226973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033265821032186</v>
+        <v>1.047534030330712</v>
       </c>
       <c r="J7">
-        <v>1.031028321320311</v>
+        <v>1.022254463494716</v>
       </c>
       <c r="K7">
-        <v>1.033971840689088</v>
+        <v>1.030966955716367</v>
       </c>
       <c r="L7">
-        <v>1.054004455295227</v>
+        <v>1.03271522395686</v>
       </c>
       <c r="M7">
-        <v>1.058676404736092</v>
+        <v>1.038513727993104</v>
       </c>
       <c r="N7">
-        <v>1.032492499797187</v>
+        <v>1.023706182087105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025180230202041</v>
+        <v>0.9968199498918278</v>
       </c>
       <c r="D8">
-        <v>1.030521792320598</v>
+        <v>1.016544933653804</v>
       </c>
       <c r="E8">
-        <v>1.05010459753543</v>
+        <v>1.01652974124783</v>
       </c>
       <c r="F8">
-        <v>1.054743547343114</v>
+        <v>1.022109274225841</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032997289003116</v>
+        <v>1.04567110383295</v>
       </c>
       <c r="J8">
-        <v>1.030230637147537</v>
+        <v>1.018520802523795</v>
       </c>
       <c r="K8">
-        <v>1.033268706526686</v>
+        <v>1.02750536165206</v>
       </c>
       <c r="L8">
-        <v>1.052797274517352</v>
+        <v>1.027490366736995</v>
       </c>
       <c r="M8">
-        <v>1.057423695450985</v>
+        <v>1.032997863243898</v>
       </c>
       <c r="N8">
-        <v>1.031693682821392</v>
+        <v>1.019967218889348</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022937227275699</v>
+        <v>0.9854909314586882</v>
       </c>
       <c r="D9">
-        <v>1.02883459972755</v>
+        <v>1.008065896734732</v>
       </c>
       <c r="E9">
-        <v>1.047546028751686</v>
+        <v>1.004818905719904</v>
       </c>
       <c r="F9">
-        <v>1.052104404015282</v>
+        <v>1.009848330094595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032509592063097</v>
+        <v>1.042100485739395</v>
       </c>
       <c r="J9">
-        <v>1.028819553024303</v>
+        <v>1.011566655258828</v>
       </c>
       <c r="K9">
-        <v>1.032020730513451</v>
+        <v>1.02102945197496</v>
       </c>
       <c r="L9">
-        <v>1.050671396273953</v>
+        <v>1.017834280391867</v>
       </c>
       <c r="M9">
-        <v>1.055215326862569</v>
+        <v>1.02278362051346</v>
       </c>
       <c r="N9">
-        <v>1.03028059479685</v>
+        <v>1.013003195937612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021441219748342</v>
+        <v>0.9775171925676844</v>
       </c>
       <c r="D10">
-        <v>1.027707264731466</v>
+        <v>1.002103566127298</v>
       </c>
       <c r="E10">
-        <v>1.045844244656177</v>
+        <v>0.9966283654920698</v>
       </c>
       <c r="F10">
-        <v>1.050347346474936</v>
+        <v>1.001256326850058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032174731268811</v>
+        <v>1.03951145959438</v>
       </c>
       <c r="J10">
-        <v>1.027875183704065</v>
+        <v>1.006652124045952</v>
       </c>
       <c r="K10">
-        <v>1.031182756298828</v>
+        <v>1.016434943623917</v>
       </c>
       <c r="L10">
-        <v>1.04925503572529</v>
+        <v>1.01105876385743</v>
       </c>
       <c r="M10">
-        <v>1.053742454865798</v>
+        <v>1.015602934916461</v>
       </c>
       <c r="N10">
-        <v>1.029334884363856</v>
+        <v>1.008081685526709</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020793274114707</v>
+        <v>0.9739536057444087</v>
       </c>
       <c r="D11">
-        <v>1.027218524302133</v>
+        <v>0.9994412811795195</v>
       </c>
       <c r="E11">
-        <v>1.045108283350173</v>
+        <v>0.992980319062184</v>
       </c>
       <c r="F11">
-        <v>1.049587081778867</v>
+        <v>0.9974254632654043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032027430118315</v>
+        <v>1.038337203516225</v>
       </c>
       <c r="J11">
-        <v>1.027465401306779</v>
+        <v>1.00445157518587</v>
       </c>
       <c r="K11">
-        <v>1.03081849047747</v>
+        <v>1.014373741816397</v>
       </c>
       <c r="L11">
-        <v>1.048641946187672</v>
+        <v>1.008035841659897</v>
       </c>
       <c r="M11">
-        <v>1.053104535948163</v>
+        <v>1.012396095448136</v>
       </c>
       <c r="N11">
-        <v>1.028924520028564</v>
+        <v>1.005878011634839</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020552573551271</v>
+        <v>0.9726122435592208</v>
       </c>
       <c r="D12">
-        <v>1.027036895431589</v>
+        <v>0.9984396288527709</v>
       </c>
       <c r="E12">
-        <v>1.044835052878601</v>
+        <v>0.9916090445849087</v>
       </c>
       <c r="F12">
-        <v>1.04930476839519</v>
+        <v>0.9959848633713946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031972370063938</v>
+        <v>1.037892696500586</v>
       </c>
       <c r="J12">
-        <v>1.027313060343817</v>
+        <v>1.003622695809852</v>
       </c>
       <c r="K12">
-        <v>1.030682973462053</v>
+        <v>1.013596784292034</v>
       </c>
       <c r="L12">
-        <v>1.048414247862361</v>
+        <v>1.006898787242132</v>
       </c>
       <c r="M12">
-        <v>1.052867560913704</v>
+        <v>1.011189393467566</v>
       </c>
       <c r="N12">
-        <v>1.028771962723961</v>
+        <v>1.005047955155034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020604205757063</v>
+        <v>0.9729007880660764</v>
       </c>
       <c r="D13">
-        <v>1.027075859452163</v>
+        <v>0.9986550752845662</v>
       </c>
       <c r="E13">
-        <v>1.044893655486873</v>
+        <v>0.991903938547281</v>
       </c>
       <c r="F13">
-        <v>1.049365321833058</v>
+        <v>0.9962946932674821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031984196277569</v>
+        <v>1.037988427824739</v>
       </c>
       <c r="J13">
-        <v>1.027345743854339</v>
+        <v>1.003801023725673</v>
       </c>
       <c r="K13">
-        <v>1.030712051928884</v>
+        <v>1.013763966679691</v>
       </c>
       <c r="L13">
-        <v>1.048463088552591</v>
+        <v>1.007143346094081</v>
       </c>
       <c r="M13">
-        <v>1.052918393931147</v>
+        <v>1.011448953257089</v>
       </c>
       <c r="N13">
-        <v>1.028804692648815</v>
+        <v>1.005226536316951</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020773378234986</v>
+        <v>0.9738430953668602</v>
       </c>
       <c r="D14">
-        <v>1.027203512612436</v>
+        <v>0.9993587485989213</v>
       </c>
       <c r="E14">
-        <v>1.045085695213846</v>
+        <v>0.9928673060691661</v>
       </c>
       <c r="F14">
-        <v>1.04956374397953</v>
+        <v>0.9973067491827704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032022885890334</v>
+        <v>1.038300632570744</v>
       </c>
       <c r="J14">
-        <v>1.027452811395967</v>
+        <v>1.004383297953269</v>
       </c>
       <c r="K14">
-        <v>1.030807292930246</v>
+        <v>1.014309752874174</v>
       </c>
       <c r="L14">
-        <v>1.048623123953593</v>
+        <v>1.007942147189941</v>
       </c>
       <c r="M14">
-        <v>1.053084947999158</v>
+        <v>1.012296671429799</v>
       </c>
       <c r="N14">
-        <v>1.028911912238634</v>
+        <v>1.005809637440737</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020877607708559</v>
+        <v>0.9744213061799039</v>
       </c>
       <c r="D15">
-        <v>1.027282152178462</v>
+        <v>0.9997905934113022</v>
       </c>
       <c r="E15">
-        <v>1.045204035549547</v>
+        <v>0.9934586876401006</v>
       </c>
       <c r="F15">
-        <v>1.049686009372899</v>
+        <v>0.9979279390653105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032046678019304</v>
+        <v>1.0384918768389</v>
       </c>
       <c r="J15">
-        <v>1.027518762086536</v>
+        <v>1.004740513980203</v>
       </c>
       <c r="K15">
-        <v>1.030865945914569</v>
+        <v>1.014644510339867</v>
       </c>
       <c r="L15">
-        <v>1.048721731071524</v>
+        <v>1.008432406667043</v>
       </c>
       <c r="M15">
-        <v>1.053187564332545</v>
+        <v>1.012816891916749</v>
       </c>
       <c r="N15">
-        <v>1.028977956586748</v>
+        <v>1.006167360755403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021484218301087</v>
+        <v>0.9777512738074393</v>
       </c>
       <c r="D16">
-        <v>1.027739688313213</v>
+        <v>1.002278500928876</v>
       </c>
       <c r="E16">
-        <v>1.045893107396755</v>
+        <v>0.9968682541719697</v>
       </c>
       <c r="F16">
-        <v>1.050397814362318</v>
+        <v>1.001508153467877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032184458642467</v>
+        <v>1.039588241629509</v>
       </c>
       <c r="J16">
-        <v>1.027902361429907</v>
+        <v>1.00679658894973</v>
       </c>
       <c r="K16">
-        <v>1.031206901599213</v>
+        <v>1.016570180665985</v>
       </c>
       <c r="L16">
-        <v>1.049295728737238</v>
+        <v>1.01125743964892</v>
       </c>
       <c r="M16">
-        <v>1.053784788150613</v>
+        <v>1.015813633174127</v>
       </c>
       <c r="N16">
-        <v>1.029362100685186</v>
+        <v>1.008226355587221</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021864685065331</v>
+        <v>0.9798096838092447</v>
       </c>
       <c r="D17">
-        <v>1.028026529371584</v>
+        <v>1.003817083243721</v>
       </c>
       <c r="E17">
-        <v>1.046325590741067</v>
+        <v>0.998979145902864</v>
       </c>
       <c r="F17">
-        <v>1.050844458634284</v>
+        <v>1.003723636252286</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03227026812044</v>
+        <v>1.040261486717539</v>
       </c>
       <c r="J17">
-        <v>1.028142751998979</v>
+        <v>1.008066483642213</v>
       </c>
       <c r="K17">
-        <v>1.031420394944681</v>
+        <v>1.017758514545976</v>
       </c>
       <c r="L17">
-        <v>1.049655836756432</v>
+        <v>1.013005098096382</v>
       </c>
       <c r="M17">
-        <v>1.054159369093032</v>
+        <v>1.017666690126652</v>
       </c>
       <c r="N17">
-        <v>1.02960283263644</v>
+        <v>1.009498053675826</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022086589019465</v>
+        <v>0.9809996922607755</v>
       </c>
       <c r="D18">
-        <v>1.028193781261168</v>
+        <v>1.004706786845267</v>
       </c>
       <c r="E18">
-        <v>1.046577939978029</v>
+        <v>1.000200671355559</v>
       </c>
       <c r="F18">
-        <v>1.051105032038785</v>
+        <v>1.005005306370316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032320096991528</v>
+        <v>1.040649071751551</v>
       </c>
       <c r="J18">
-        <v>1.028282884342871</v>
+        <v>1.008800237259774</v>
       </c>
       <c r="K18">
-        <v>1.031544785204856</v>
+        <v>1.01844476661722</v>
       </c>
       <c r="L18">
-        <v>1.049865901361599</v>
+        <v>1.014015941849336</v>
       </c>
       <c r="M18">
-        <v>1.054377840815042</v>
+        <v>1.018738197428003</v>
       </c>
       <c r="N18">
-        <v>1.029743163984333</v>
+        <v>1.010232849307688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022162249840725</v>
+        <v>0.9814036816166486</v>
       </c>
       <c r="D19">
-        <v>1.028250800031906</v>
+        <v>1.005008861584435</v>
       </c>
       <c r="E19">
-        <v>1.04666399965365</v>
+        <v>1.000615559458871</v>
       </c>
       <c r="F19">
-        <v>1.05119388989468</v>
+        <v>1.005440558141165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032337049624962</v>
+        <v>1.040780371948694</v>
       </c>
       <c r="J19">
-        <v>1.028330651693882</v>
+        <v>1.009049266179868</v>
       </c>
       <c r="K19">
-        <v>1.031587175851124</v>
+        <v>1.018677609538813</v>
       </c>
       <c r="L19">
-        <v>1.0499375313096</v>
+        <v>1.014359189569245</v>
       </c>
       <c r="M19">
-        <v>1.054452331486421</v>
+        <v>1.019101993561702</v>
       </c>
       <c r="N19">
-        <v>1.029790999170462</v>
+        <v>1.010482231877412</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021823866223789</v>
+        <v>0.9795899422717345</v>
       </c>
       <c r="D20">
-        <v>1.027995759997683</v>
+        <v>1.00365281159664</v>
       </c>
       <c r="E20">
-        <v>1.04627918016526</v>
+        <v>0.9987536796234091</v>
       </c>
       <c r="F20">
-        <v>1.050796532413764</v>
+        <v>1.003487037939216</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032261084571323</v>
+        <v>1.040189784581829</v>
       </c>
       <c r="J20">
-        <v>1.028116968990904</v>
+        <v>1.007930959489559</v>
       </c>
       <c r="K20">
-        <v>1.03139750327506</v>
+        <v>1.017631733383559</v>
       </c>
       <c r="L20">
-        <v>1.049617198538757</v>
+        <v>1.012818479531204</v>
       </c>
       <c r="M20">
-        <v>1.05411918165592</v>
+        <v>1.017468847866873</v>
       </c>
       <c r="N20">
-        <v>1.029577013013535</v>
+        <v>1.009362337063332</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020723561838681</v>
+        <v>0.9735661062618826</v>
       </c>
       <c r="D21">
-        <v>1.027165924386734</v>
+        <v>0.9991518921635056</v>
       </c>
       <c r="E21">
-        <v>1.045029140484322</v>
+        <v>0.9925840745717668</v>
       </c>
       <c r="F21">
-        <v>1.049505311320178</v>
+        <v>0.9970092199275995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032011502308141</v>
+        <v>1.038208929076462</v>
       </c>
       <c r="J21">
-        <v>1.027421286246893</v>
+        <v>1.004212155167524</v>
       </c>
       <c r="K21">
-        <v>1.030779252690517</v>
+        <v>1.014149350041752</v>
       </c>
       <c r="L21">
-        <v>1.048575996678542</v>
+        <v>1.00770731928984</v>
       </c>
       <c r="M21">
-        <v>1.053035902628667</v>
+        <v>1.01204747595146</v>
       </c>
       <c r="N21">
-        <v>1.028880342320233</v>
+        <v>1.005638251612606</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020031613865649</v>
+        <v>0.9696757778336635</v>
       </c>
       <c r="D22">
-        <v>1.026643659747861</v>
+        <v>0.9962477888022701</v>
       </c>
       <c r="E22">
-        <v>1.044243991107207</v>
+        <v>0.9886105670114022</v>
       </c>
       <c r="F22">
-        <v>1.048693948143566</v>
+        <v>0.9928336778569226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031852579222538</v>
+        <v>1.036915065646469</v>
       </c>
       <c r="J22">
-        <v>1.026983133593486</v>
+        <v>1.001807140130266</v>
       </c>
       <c r="K22">
-        <v>1.030389304957013</v>
+        <v>1.011893946009014</v>
       </c>
       <c r="L22">
-        <v>1.047921527679429</v>
+        <v>1.004411078408283</v>
       </c>
       <c r="M22">
-        <v>1.052354665801984</v>
+        <v>1.008548450419927</v>
       </c>
       <c r="N22">
-        <v>1.028441567439801</v>
+        <v>1.003229821178136</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020398442124697</v>
+        <v>0.971748233140026</v>
       </c>
       <c r="D23">
-        <v>1.02692057058646</v>
+        <v>0.9977945755202732</v>
       </c>
       <c r="E23">
-        <v>1.044660137886009</v>
+        <v>0.9907262978227255</v>
       </c>
       <c r="F23">
-        <v>1.049124021826224</v>
+        <v>0.9950573177373317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031937016900646</v>
+        <v>1.037605679328475</v>
       </c>
       <c r="J23">
-        <v>1.027215477528532</v>
+        <v>1.00308863490874</v>
       </c>
       <c r="K23">
-        <v>1.030596139968093</v>
+        <v>1.013096021495796</v>
       </c>
       <c r="L23">
-        <v>1.048268457472646</v>
+        <v>1.006166605006531</v>
       </c>
       <c r="M23">
-        <v>1.052715815308898</v>
+        <v>1.010412231865899</v>
       </c>
       <c r="N23">
-        <v>1.028674241329885</v>
+        <v>1.004513135826186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021842310550152</v>
+        <v>0.9796892667800124</v>
       </c>
       <c r="D24">
-        <v>1.028009663531415</v>
+        <v>1.003727062708742</v>
       </c>
       <c r="E24">
-        <v>1.046300150831501</v>
+        <v>0.9988555881020242</v>
       </c>
       <c r="F24">
-        <v>1.050818188044779</v>
+        <v>1.003593979161854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032265234908853</v>
+        <v>1.040222199448677</v>
       </c>
       <c r="J24">
-        <v>1.02812861948009</v>
+        <v>1.007992218467832</v>
       </c>
       <c r="K24">
-        <v>1.031407847457841</v>
+        <v>1.017689041563299</v>
       </c>
       <c r="L24">
-        <v>1.04963465742515</v>
+        <v>1.012902830745857</v>
       </c>
       <c r="M24">
-        <v>1.054137340675082</v>
+        <v>1.017558273095956</v>
       </c>
       <c r="N24">
-        <v>1.029588680047753</v>
+        <v>1.009423683036379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023517216667257</v>
+        <v>0.9884904845968716</v>
       </c>
       <c r="D25">
-        <v>1.029271230979475</v>
+        <v>1.01031025790005</v>
       </c>
       <c r="E25">
-        <v>1.048206787437954</v>
+        <v>1.007910659143934</v>
       </c>
       <c r="F25">
-        <v>1.052786267609744</v>
+        <v>1.013088185641012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032637390161139</v>
+        <v>1.043059174480812</v>
       </c>
       <c r="J25">
-        <v>1.029184996725037</v>
+        <v>1.013411496671907</v>
       </c>
       <c r="K25">
-        <v>1.032344420686054</v>
+        <v>1.02275060132932</v>
       </c>
       <c r="L25">
-        <v>1.051220829482306</v>
+        <v>1.020387401077431</v>
       </c>
       <c r="M25">
-        <v>1.055786353614676</v>
+        <v>1.025486665972463</v>
       </c>
       <c r="N25">
-        <v>1.030646557469556</v>
+        <v>1.014850657237105</v>
       </c>
     </row>
   </sheetData>
